--- a/data/RabbitMQ/RPC benchmarks data.xlsx
+++ b/data/RabbitMQ/RPC benchmarks data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RPC_Raw_Data" sheetId="1" r:id="rId1"/>
@@ -499,12 +499,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="324734720"/>
-        <c:axId val="199886176"/>
+        <c:axId val="267474560"/>
+        <c:axId val="334398480"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="324734720"/>
+        <c:axId val="267474560"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -526,7 +526,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -541,7 +541,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199886176"/>
+        <c:crossAx val="334398480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -549,7 +549,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199886176"/>
+        <c:axId val="334398480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -656,7 +656,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324734720"/>
+        <c:crossAx val="267474560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1648,11 +1648,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="197781600"/>
-        <c:axId val="324631536"/>
+        <c:axId val="340741696"/>
+        <c:axId val="340327344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="197781600"/>
+        <c:axId val="340741696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1756,7 +1756,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324631536"/>
+        <c:crossAx val="340327344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1764,7 +1764,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="324631536"/>
+        <c:axId val="340327344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1876,7 +1876,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197781600"/>
+        <c:crossAx val="340741696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4175,8 +4175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4264,7 +4264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>

--- a/data/RabbitMQ/RPC benchmarks data.xlsx
+++ b/data/RabbitMQ/RPC benchmarks data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RPC_Raw_Data" sheetId="1" r:id="rId1"/>
@@ -480,7 +480,7 @@
                   <c:v>7665.42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2828.49</c:v>
+                  <c:v>6460.18</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>582.32000000000005</c:v>
@@ -499,12 +499,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="267474560"/>
-        <c:axId val="334398480"/>
+        <c:axId val="256096112"/>
+        <c:axId val="256096672"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="267474560"/>
+        <c:axId val="256096112"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -541,7 +541,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334398480"/>
+        <c:crossAx val="256096672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -549,7 +549,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="334398480"/>
+        <c:axId val="256096672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -656,7 +656,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267474560"/>
+        <c:crossAx val="256096112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1480,16 +1480,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1777.72</c:v>
+                  <c:v>4354.55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2828.49</c:v>
+                  <c:v>6460.18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3898.52</c:v>
+                  <c:v>7391.67</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4583.92</c:v>
+                  <c:v>6218.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1648,11 +1648,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="340741696"/>
-        <c:axId val="340327344"/>
+        <c:axId val="256056384"/>
+        <c:axId val="254792656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="340741696"/>
+        <c:axId val="256056384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1756,7 +1756,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="340327344"/>
+        <c:crossAx val="254792656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1764,7 +1764,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="340327344"/>
+        <c:axId val="254792656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1876,7 +1876,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="340741696"/>
+        <c:crossAx val="256056384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3374,7 +3374,7 @@
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3588,31 +3588,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>28.1067</v>
+        <v>11.551600000000001</v>
       </c>
       <c r="C7" s="4">
-        <v>28.145199999999999</v>
+        <v>11.4129</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
-        <v>35.244700000000002</v>
+        <v>15.400499999999999</v>
       </c>
       <c r="F7" s="3">
-        <v>35.464399999999998</v>
+        <v>15.558400000000001</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="4">
-        <v>51.411900000000003</v>
+        <v>27.117999999999999</v>
       </c>
       <c r="I7" s="4">
-        <v>51.191200000000002</v>
+        <v>26.997</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3">
-        <v>87.254900000000006</v>
+        <v>64.3673</v>
       </c>
       <c r="L7" s="3">
-        <v>87.2684</v>
+        <v>64.2761</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -4066,51 +4066,51 @@
       </c>
       <c r="B8">
         <f>AVERAGE(RPC_Raw_Data!B7:C7)</f>
-        <v>28.12595</v>
+        <v>11.482250000000001</v>
       </c>
       <c r="C8">
         <f>AVERAGE(RPC_Raw_Data!E7:F7)</f>
-        <v>35.354550000000003</v>
+        <v>15.47945</v>
       </c>
       <c r="D8">
         <f>AVERAGE(RPC_Raw_Data!H7:I7)</f>
-        <v>51.301550000000006</v>
+        <v>27.057499999999997</v>
       </c>
       <c r="E8">
         <f>AVERAGE(RPC_Raw_Data!K7:L7)</f>
-        <v>87.261650000000003</v>
+        <v>64.321699999999993</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>1777.72</v>
+        <v>4354.55</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>2828.49</v>
+        <v>6460.18</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>3898.52</v>
+        <v>7391.67</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>4583.92</v>
+        <v>6218.74</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>3555.44</v>
+        <v>8709.09</v>
       </c>
       <c r="M8">
         <f t="shared" si="1"/>
-        <v>5656.98</v>
+        <v>12920.36</v>
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
-        <v>7797.04</v>
+        <v>14783.33</v>
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>9167.83</v>
+        <v>12437.48</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -4175,7 +4175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -4241,7 +4241,7 @@
       </c>
       <c r="B7">
         <f>RPC_Plot_Source!H8</f>
-        <v>2828.49</v>
+        <v>6460.18</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4264,7 +4264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
@@ -4386,19 +4386,19 @@
       </c>
       <c r="B8">
         <f>RPC_Plot_Source!G8</f>
-        <v>1777.72</v>
+        <v>4354.55</v>
       </c>
       <c r="C8">
         <f>RPC_Plot_Source!H8</f>
-        <v>2828.49</v>
+        <v>6460.18</v>
       </c>
       <c r="D8">
         <f>RPC_Plot_Source!I8</f>
-        <v>3898.52</v>
+        <v>7391.67</v>
       </c>
       <c r="E8">
         <f>RPC_Plot_Source!J8</f>
-        <v>4583.92</v>
+        <v>6218.74</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
